--- a/Ubungen/Grundpraktikum/C1/Versuch 49/Durchfuhrung/Anodenstrom Uh 7.5 V.xlsx
+++ b/Ubungen/Grundpraktikum/C1/Versuch 49/Durchfuhrung/Anodenstrom Uh 7.5 V.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Uni-Wuerzburg-Bachlor-MathPhy\Ubungen\Grundpraktikum\C1\Versuch 49\Durchfuhrung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junwe\Documents\GitHub\Uni-Wuerzburg-Bachlor-MathPhy\Ubungen\Grundpraktikum\C1\Versuch 49\Durchfuhrung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F3C85A-E08E-4C69-9C93-86B4E623D608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6F7090-17B9-43F5-B2FE-3BA1FAA5DAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -348,119 +352,810 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1">
-        <v>-1.5</v>
+        <v>-500.21</v>
       </c>
       <c r="B1">
-        <f>A1</f>
-        <v>-1.5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-2.9999999999999997E-4</v>
+      </c>
+      <c r="C1">
+        <v>1000</v>
+      </c>
+      <c r="D1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
-        <f>A1+1</f>
-        <v>-0.5</v>
+        <v>-400.27</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B11" si="0">A2</f>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-2.0000000000000001E-4</v>
+      </c>
+      <c r="C2">
+        <v>1000</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
-        <f t="shared" ref="A3:A11" si="1">A2+1</f>
-        <v>0.5</v>
+        <v>-300.5</v>
       </c>
       <c r="B3">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-2.0000000000000001E-4</v>
+      </c>
+      <c r="C3">
+        <v>1000</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>-200.73</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-2.0000000000000001E-4</v>
+      </c>
+      <c r="C4">
+        <v>1000</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>-100.27</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>-2.0000000000000001E-4</v>
+      </c>
+      <c r="C5">
+        <v>1000</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
-        <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>10.327299999999999</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
-        <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>20.039000000000001</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.3901</v>
+      </c>
+      <c r="C7">
+        <v>100</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
-        <f t="shared" si="1"/>
-        <v>5.5</v>
+        <v>30.501999999999999</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.69779999999999998</v>
+      </c>
+      <c r="C8">
+        <v>100</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
-        <f t="shared" si="1"/>
-        <v>6.5</v>
+        <v>40.273000000000003</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.0278</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
-        <f t="shared" si="1"/>
-        <v>7.5</v>
+        <v>50.320999999999998</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1.4123000000000001</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
-        <f t="shared" si="1"/>
-        <v>8.5</v>
+        <v>60.427999999999997</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
-        <v>8.5</v>
+        <v>1.8196000000000001</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>70.531999999999996</v>
+      </c>
+      <c r="B12">
+        <v>2.2374999999999998</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>80.132000000000005</v>
+      </c>
+      <c r="B13">
+        <v>2.6953999999999998</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>89.022999999999996</v>
+      </c>
+      <c r="B14">
+        <v>3.0914000000000001</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>100.452</v>
+      </c>
+      <c r="B15">
+        <v>3.5775999999999999</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>110.193</v>
+      </c>
+      <c r="B16">
+        <v>4.0147000000000004</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>120.34</v>
+      </c>
+      <c r="B17">
+        <v>4.4619999999999997</v>
+      </c>
+      <c r="C17">
+        <v>1000</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>130.03</v>
+      </c>
+      <c r="B18">
+        <v>4.8967000000000001</v>
+      </c>
+      <c r="C18">
+        <v>1000</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>140.52000000000001</v>
+      </c>
+      <c r="B19">
+        <v>5.3868999999999998</v>
+      </c>
+      <c r="C19">
+        <v>1000</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>150.52000000000001</v>
+      </c>
+      <c r="B20">
+        <v>5.8173000000000004</v>
+      </c>
+      <c r="C20">
+        <v>1000</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>160.69</v>
+      </c>
+      <c r="B21">
+        <v>6.2417999999999996</v>
+      </c>
+      <c r="C21">
+        <v>1000</v>
+      </c>
+      <c r="D21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>170.64</v>
+      </c>
+      <c r="B22">
+        <v>6.6574999999999998</v>
+      </c>
+      <c r="C22">
+        <v>1000</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>180.31</v>
+      </c>
+      <c r="B23">
+        <v>7.0694999999999997</v>
+      </c>
+      <c r="C23">
+        <v>1000</v>
+      </c>
+      <c r="D23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>190.45</v>
+      </c>
+      <c r="B24">
+        <v>7.4749999999999996</v>
+      </c>
+      <c r="C24">
+        <v>1000</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>200.53</v>
+      </c>
+      <c r="B25">
+        <v>7.8365</v>
+      </c>
+      <c r="C25">
+        <v>1000</v>
+      </c>
+      <c r="D25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>210.81</v>
+      </c>
+      <c r="B26">
+        <v>8.2355999999999998</v>
+      </c>
+      <c r="C26">
+        <v>1000</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>220.95</v>
+      </c>
+      <c r="B27">
+        <v>8.5783000000000005</v>
+      </c>
+      <c r="C27">
+        <v>1000</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>230.14</v>
+      </c>
+      <c r="B28">
+        <v>9.0563000000000002</v>
+      </c>
+      <c r="C28">
+        <v>1000</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>240.89</v>
+      </c>
+      <c r="B29">
+        <v>9.5359999999999996</v>
+      </c>
+      <c r="C29">
+        <v>1000</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>250.81</v>
+      </c>
+      <c r="B30">
+        <v>9.8712</v>
+      </c>
+      <c r="C30">
+        <v>1000</v>
+      </c>
+      <c r="D30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>260.77999999999997</v>
+      </c>
+      <c r="B31">
+        <v>10.1111</v>
+      </c>
+      <c r="C31">
+        <v>1000</v>
+      </c>
+      <c r="D31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>270.99</v>
+      </c>
+      <c r="B32">
+        <v>10.391500000000001</v>
+      </c>
+      <c r="C32">
+        <v>1000</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>280.7</v>
+      </c>
+      <c r="B33">
+        <v>10.6745</v>
+      </c>
+      <c r="C33">
+        <v>1000</v>
+      </c>
+      <c r="D33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>290.69</v>
+      </c>
+      <c r="B34">
+        <v>10.9056</v>
+      </c>
+      <c r="C34">
+        <v>1000</v>
+      </c>
+      <c r="D34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>300.23</v>
+      </c>
+      <c r="B35">
+        <v>11.0923</v>
+      </c>
+      <c r="C35">
+        <v>1000</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>310.92</v>
+      </c>
+      <c r="B36">
+        <v>11.3575</v>
+      </c>
+      <c r="C36">
+        <v>1000</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>320.10000000000002</v>
+      </c>
+      <c r="B37">
+        <v>11.4832</v>
+      </c>
+      <c r="C37">
+        <v>1000</v>
+      </c>
+      <c r="D37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>330.38</v>
+      </c>
+      <c r="B38">
+        <v>11.6275</v>
+      </c>
+      <c r="C38">
+        <v>1000</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>340.25</v>
+      </c>
+      <c r="B39">
+        <v>11.7782</v>
+      </c>
+      <c r="C39">
+        <v>1000</v>
+      </c>
+      <c r="D39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>350.9</v>
+      </c>
+      <c r="B40">
+        <v>11.978999999999999</v>
+      </c>
+      <c r="C40">
+        <v>1000</v>
+      </c>
+      <c r="D40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>360.15</v>
+      </c>
+      <c r="B41">
+        <v>12.145</v>
+      </c>
+      <c r="C41">
+        <v>1000</v>
+      </c>
+      <c r="D41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>370.83</v>
+      </c>
+      <c r="B42">
+        <v>12.28</v>
+      </c>
+      <c r="C42">
+        <v>1000</v>
+      </c>
+      <c r="D42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>381.16</v>
+      </c>
+      <c r="B43">
+        <v>12.294</v>
+      </c>
+      <c r="C43">
+        <v>1000</v>
+      </c>
+      <c r="D43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>390.15</v>
+      </c>
+      <c r="B44">
+        <v>12.404999999999999</v>
+      </c>
+      <c r="C44">
+        <v>1000</v>
+      </c>
+      <c r="D44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>400.96</v>
+      </c>
+      <c r="B45">
+        <v>12.567</v>
+      </c>
+      <c r="C45">
+        <v>1000</v>
+      </c>
+      <c r="D45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>410.57</v>
+      </c>
+      <c r="B46">
+        <v>12.576000000000001</v>
+      </c>
+      <c r="C46">
+        <v>1000</v>
+      </c>
+      <c r="D46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>420.76</v>
+      </c>
+      <c r="B47">
+        <v>12.744999999999999</v>
+      </c>
+      <c r="C47">
+        <v>1000</v>
+      </c>
+      <c r="D47">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>430.1</v>
+      </c>
+      <c r="B48">
+        <v>12.792999999999999</v>
+      </c>
+      <c r="C48">
+        <v>1000</v>
+      </c>
+      <c r="D48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>440.25</v>
+      </c>
+      <c r="B49">
+        <v>12.775</v>
+      </c>
+      <c r="C49">
+        <v>1000</v>
+      </c>
+      <c r="D49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>450.55</v>
+      </c>
+      <c r="B50">
+        <v>12.813000000000001</v>
+      </c>
+      <c r="C50">
+        <v>1000</v>
+      </c>
+      <c r="D50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>460.34</v>
+      </c>
+      <c r="B51">
+        <v>12.891999999999999</v>
+      </c>
+      <c r="C51">
+        <v>1000</v>
+      </c>
+      <c r="D51">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>470.06</v>
+      </c>
+      <c r="B52">
+        <v>12.952999999999999</v>
+      </c>
+      <c r="C52">
+        <v>1000</v>
+      </c>
+      <c r="D52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>480.04</v>
+      </c>
+      <c r="B53">
+        <v>12.936</v>
+      </c>
+      <c r="C53">
+        <v>1000</v>
+      </c>
+      <c r="D53">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>490.41</v>
+      </c>
+      <c r="B54">
+        <v>12.956</v>
+      </c>
+      <c r="C54">
+        <v>1000</v>
+      </c>
+      <c r="D54">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>500.15</v>
+      </c>
+      <c r="B55">
+        <v>13.074999999999999</v>
+      </c>
+      <c r="C55">
+        <v>1000</v>
+      </c>
+      <c r="D55">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>15.41</v>
+      </c>
+      <c r="B56">
+        <v>0.2853</v>
+      </c>
+      <c r="C56">
+        <v>100</v>
+      </c>
+      <c r="D56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>25.041</v>
+      </c>
+      <c r="B57">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="C57">
+        <v>100</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Ubungen/Grundpraktikum/C1/Versuch 49/Durchfuhrung/Anodenstrom Uh 7.5 V.xlsx
+++ b/Ubungen/Grundpraktikum/C1/Versuch 49/Durchfuhrung/Anodenstrom Uh 7.5 V.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junwe\Documents\GitHub\Uni-Wuerzburg-Bachlor-MathPhy\Ubungen\Grundpraktikum\C1\Versuch 49\Durchfuhrung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\Uni-Wuerzburg-Bachlor-MathPhy\Ubungen\Grundpraktikum\C1\Versuch 49\Durchfuhrung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6F7090-17B9-43F5-B2FE-3BA1FAA5DAED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4FC28C-44F0-4A35-941B-CA604202972D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -354,13 +350,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>-500.21</v>
       </c>
@@ -374,7 +370,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-400.27</v>
       </c>
@@ -388,7 +384,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-300.5</v>
       </c>
@@ -402,7 +398,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-200.73</v>
       </c>
@@ -416,7 +412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-100.27</v>
       </c>
@@ -430,7 +426,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10.327299999999999</v>
       </c>
@@ -444,7 +440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>20.039000000000001</v>
       </c>
@@ -458,7 +454,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>30.501999999999999</v>
       </c>
@@ -472,7 +468,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>40.273000000000003</v>
       </c>
@@ -486,7 +482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>50.320999999999998</v>
       </c>
@@ -500,7 +496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>60.427999999999997</v>
       </c>
@@ -514,7 +510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>70.531999999999996</v>
       </c>
@@ -528,7 +524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>80.132000000000005</v>
       </c>
@@ -542,7 +538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>89.022999999999996</v>
       </c>
@@ -556,7 +552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>100.452</v>
       </c>
@@ -570,7 +566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>110.193</v>
       </c>
@@ -584,7 +580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>120.34</v>
       </c>
@@ -598,7 +594,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>130.03</v>
       </c>
@@ -612,7 +608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>140.52000000000001</v>
       </c>
@@ -626,7 +622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>150.52000000000001</v>
       </c>
@@ -640,7 +636,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>160.69</v>
       </c>
@@ -654,7 +650,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>170.64</v>
       </c>
@@ -668,7 +664,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>180.31</v>
       </c>
@@ -682,7 +678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>190.45</v>
       </c>
@@ -696,7 +692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>200.53</v>
       </c>
@@ -710,7 +706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>210.81</v>
       </c>
@@ -724,7 +720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>220.95</v>
       </c>
@@ -738,7 +734,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>230.14</v>
       </c>
@@ -752,7 +748,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>240.89</v>
       </c>
@@ -766,7 +762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>250.81</v>
       </c>
@@ -780,7 +776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>260.77999999999997</v>
       </c>
@@ -794,7 +790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>270.99</v>
       </c>
@@ -808,7 +804,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>280.7</v>
       </c>
@@ -822,7 +818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>290.69</v>
       </c>
@@ -836,7 +832,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>300.23</v>
       </c>
@@ -850,7 +846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>310.92</v>
       </c>
@@ -864,7 +860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>320.10000000000002</v>
       </c>
@@ -878,7 +874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>330.38</v>
       </c>
@@ -892,7 +888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>340.25</v>
       </c>
@@ -906,7 +902,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>350.9</v>
       </c>
@@ -920,7 +916,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>360.15</v>
       </c>
@@ -934,7 +930,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>370.83</v>
       </c>
@@ -948,7 +944,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>381.16</v>
       </c>
@@ -962,7 +958,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>390.15</v>
       </c>
@@ -976,7 +972,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>400.96</v>
       </c>
@@ -990,7 +986,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>410.57</v>
       </c>
@@ -1004,7 +1000,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>420.76</v>
       </c>
@@ -1018,7 +1014,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>430.1</v>
       </c>
@@ -1032,7 +1028,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>440.25</v>
       </c>
@@ -1046,7 +1042,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>450.55</v>
       </c>
@@ -1060,7 +1056,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>460.34</v>
       </c>
@@ -1074,7 +1070,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>470.06</v>
       </c>
@@ -1088,7 +1084,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>480.04</v>
       </c>
@@ -1102,7 +1098,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>490.41</v>
       </c>
@@ -1116,7 +1112,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>500.15</v>
       </c>
@@ -1130,7 +1126,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>15.41</v>
       </c>
@@ -1144,7 +1140,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>25.041</v>
       </c>
@@ -1155,7 +1151,7 @@
         <v>100</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
